--- a/2020_01_32769/test/test.xlsx
+++ b/2020_01_32769/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-master\2020_01_32769\paper_20032501\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-master_old\2020_01_32769\paper_20032501\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -278,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +298,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,8 +586,8 @@
   <dimension ref="A1:M248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2263,7 +2266,10 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H57" s="1"/>
+      <c r="H57" s="7">
+        <f>SUMXMY2(H2:H56, I2:I56)/55</f>
+        <v>17.522632212265126</v>
+      </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
@@ -3032,7 +3038,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:I1048576">
+  <conditionalFormatting sqref="H1:I56 H58:I1048576 I57">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3064,7 +3070,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:I1048576</xm:sqref>
+          <xm:sqref>H1:I56 H58:I1048576 I57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2020_01_32769/test/test.xlsx
+++ b/2020_01_32769/test/test.xlsx
@@ -213,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +255,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -633,6 +644,9 @@
       <c r="I2" s="1">
         <v>2.9715242881071999</v>
       </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>3582</v>
       </c>
@@ -663,6 +677,9 @@
       <c r="I3" s="1">
         <v>3.5748502994011901</v>
       </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>334</v>
       </c>
@@ -693,6 +710,9 @@
       <c r="I4" s="1">
         <v>8.1499558953249007</v>
       </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>3401</v>
       </c>
@@ -723,6 +743,9 @@
       <c r="I5" s="1">
         <v>1.0101010101008999E-3</v>
       </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>990</v>
       </c>
@@ -753,6 +776,9 @@
       <c r="I6" s="1">
         <v>0.128352490421455</v>
       </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>522</v>
       </c>
@@ -783,6 +809,9 @@
       <c r="I7" s="1">
         <v>3.46620450606582E-3</v>
       </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>577</v>
       </c>
@@ -813,6 +842,9 @@
       <c r="I8" s="1">
         <v>0.12779552715654899</v>
       </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>313</v>
       </c>
@@ -843,6 +875,9 @@
       <c r="I9" s="1">
         <v>2.20588235294116E-2</v>
       </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>136</v>
       </c>
@@ -873,6 +908,9 @@
       <c r="I10" s="1">
         <v>0.10686482661004899</v>
       </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>1413</v>
       </c>
@@ -903,6 +941,9 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>254</v>
       </c>
@@ -933,6 +974,9 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>146</v>
       </c>
@@ -963,6 +1007,9 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>168</v>
       </c>
@@ -993,6 +1040,9 @@
       <c r="I14" s="1">
         <v>2.5078369905956001E-2</v>
       </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>319</v>
       </c>
@@ -1023,6 +1073,9 @@
       <c r="I15" s="1">
         <v>0.69214876033057804</v>
       </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>484</v>
       </c>
@@ -1053,6 +1106,9 @@
       <c r="I16" s="1">
         <v>1.5698587127157501E-3</v>
       </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>1274</v>
       </c>
@@ -1083,6 +1139,9 @@
       <c r="I17" s="1">
         <v>2.1924290220820102</v>
       </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>317</v>
       </c>
@@ -1113,6 +1172,9 @@
       <c r="I18" s="3">
         <v>4.4247787610585101E-5</v>
       </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
       <c r="K18">
         <v>67800</v>
       </c>
@@ -1143,6 +1205,9 @@
       <c r="I19" s="1">
         <v>9.8231827111994099E-4</v>
       </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>1018</v>
       </c>
@@ -1173,6 +1238,9 @@
       <c r="I20" s="1">
         <v>1.5333333333333301</v>
       </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>75</v>
       </c>
@@ -1203,6 +1271,9 @@
       <c r="I21" s="1">
         <v>3.1595576619273202E-2</v>
       </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>633</v>
       </c>
@@ -1233,6 +1304,9 @@
       <c r="I22" s="1">
         <v>1.06837606837606E-3</v>
       </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>936</v>
       </c>
@@ -1263,6 +1337,9 @@
       <c r="I23" s="1">
         <v>7.5268817204300995E-2</v>
       </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23">
         <v>93</v>
       </c>
@@ -1293,6 +1370,9 @@
       <c r="I24" s="1">
         <v>0.14173228346456601</v>
       </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>127</v>
       </c>
@@ -1323,6 +1403,9 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
       <c r="K25">
         <v>75</v>
       </c>
@@ -1353,6 +1436,9 @@
       <c r="I26" s="1">
         <v>3.2258064516128997E-2</v>
       </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
       <c r="K26">
         <v>248</v>
       </c>
@@ -1383,6 +1469,9 @@
       <c r="I27" s="1">
         <v>2.2164276401564501E-2</v>
       </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
       <c r="K27">
         <v>767</v>
       </c>
@@ -1413,6 +1502,9 @@
       <c r="I28" s="1">
         <v>0.52970297029702895</v>
       </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
       <c r="K28">
         <v>404</v>
       </c>
@@ -1443,6 +1535,9 @@
       <c r="I29" s="1">
         <v>0.30075187969924799</v>
       </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
       <c r="K29">
         <v>133</v>
       </c>
@@ -1473,6 +1568,9 @@
       <c r="I30" s="1">
         <v>3.1307550644567202E-2</v>
       </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
       <c r="K30">
         <v>543</v>
       </c>
@@ -1503,6 +1601,9 @@
       <c r="I31" s="1">
         <v>0.35036496350364899</v>
       </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
       <c r="K31">
         <v>137</v>
       </c>
@@ -1533,6 +1634,9 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>76</v>
       </c>
@@ -1563,6 +1667,9 @@
       <c r="I33" s="1">
         <v>4.54545454545454E-2</v>
       </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
       <c r="K33">
         <v>176</v>
       </c>
@@ -1593,6 +1700,9 @@
       <c r="I34" s="1">
         <v>2.3424878836833599E-2</v>
       </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>1238</v>
       </c>
@@ -1623,6 +1733,9 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>712</v>
       </c>
@@ -1653,6 +1766,9 @@
       <c r="I36" s="1">
         <v>7.1316643775752198</v>
       </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
       <c r="K36">
         <v>16018</v>
       </c>
@@ -1683,6 +1799,9 @@
       <c r="I37" s="1">
         <v>4.2811884372612798</v>
       </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
       <c r="K37">
         <v>24873</v>
       </c>
@@ -1713,6 +1832,9 @@
       <c r="I38" s="1">
         <v>2.4775641025641</v>
       </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
       <c r="K38">
         <v>624</v>
       </c>
@@ -1743,6 +1865,9 @@
       <c r="I39" s="1">
         <v>2.0281690140844999</v>
       </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
       <c r="K39">
         <v>568</v>
       </c>
@@ -1773,6 +1898,9 @@
       <c r="I40" s="1">
         <v>2.4604399667251999</v>
       </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
       <c r="K40">
         <v>21638</v>
       </c>
@@ -1803,6 +1931,9 @@
       <c r="I41" s="1">
         <v>5.0085836909871198</v>
       </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
       <c r="K41">
         <v>233</v>
       </c>
@@ -1833,6 +1964,9 @@
       <c r="I42" s="1">
         <v>12.642129105322701</v>
       </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>883</v>
       </c>
@@ -1863,6 +1997,9 @@
       <c r="I43" s="1">
         <v>1.74760729142006</v>
       </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
       <c r="K43">
         <v>59138</v>
       </c>
@@ -1893,6 +2030,9 @@
       <c r="I44" s="1">
         <v>5.9436875567665703</v>
       </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
       <c r="K44">
         <v>1101</v>
       </c>
@@ -1923,6 +2063,9 @@
       <c r="I45" s="1">
         <v>0.17888628501283299</v>
       </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
       <c r="K45">
         <v>8961</v>
       </c>
@@ -1953,6 +2096,9 @@
       <c r="I46" s="1">
         <v>6.20744680851063</v>
       </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>188</v>
       </c>
@@ -1983,6 +2129,9 @@
       <c r="I47" s="1">
         <v>2.8185298621745698</v>
       </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
       <c r="K47">
         <v>1306</v>
       </c>
@@ -2013,6 +2162,9 @@
       <c r="I48" s="1">
         <v>5.5221217887725897</v>
       </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
       <c r="K48">
         <v>4204</v>
       </c>
@@ -2043,6 +2195,9 @@
       <c r="I49" s="1">
         <v>1.7769392033542899</v>
       </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
       <c r="K49">
         <v>2385</v>
       </c>
@@ -2073,6 +2228,9 @@
       <c r="I50" s="1">
         <v>6.1472527472527396</v>
       </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
       <c r="K50">
         <v>455</v>
       </c>
@@ -2103,6 +2261,9 @@
       <c r="I51" s="1">
         <v>4.9976710233592803</v>
       </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>28768</v>
       </c>
@@ -2133,6 +2294,9 @@
       <c r="I52" s="1">
         <v>4.91778697001034</v>
       </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
       <c r="K52">
         <v>1934</v>
       </c>
@@ -2163,6 +2327,9 @@
       <c r="I53" s="1">
         <v>2.4701632325394698</v>
       </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
       <c r="K53">
         <v>7474</v>
       </c>
@@ -2193,6 +2360,9 @@
       <c r="I54" s="1">
         <v>3.3622704507512502</v>
       </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
       <c r="K54">
         <v>599</v>
       </c>
@@ -2223,6 +2393,9 @@
       <c r="I55" s="1">
         <v>15.5182122118599</v>
       </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
       <c r="K55">
         <v>5683</v>
       </c>
@@ -2252,6 +2425,9 @@
       </c>
       <c r="I56" s="1">
         <v>17.2615097968505</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
       </c>
       <c r="K56">
         <v>33276</v>
@@ -2270,7 +2446,14 @@
         <f>SUMXMY2(H2:H56, I2:I56)/55</f>
         <v>17.522632212265126</v>
       </c>
-      <c r="I57" s="1"/>
+      <c r="I57" s="7">
+        <f>SUMXMY2(J2:J56, I2:I56)/55</f>
+        <v>20.51483671450001</v>
+      </c>
+      <c r="J57" s="4">
+        <f>I57/H57</f>
+        <v>1.1707622728131257</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H58" s="1"/>
@@ -3038,7 +3221,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:I56 H58:I1048576 I57">
+  <conditionalFormatting sqref="H1:I56 H58:I1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3070,7 +3253,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:I56 H58:I1048576 I57</xm:sqref>
+          <xm:sqref>H1:I56 H58:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
